--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dmytro\D!\GoIt\HTML,CSS\GraphsGen-hackaton-FE4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Січень</t>
   </si>
@@ -35,11 +40,17 @@
   <si>
     <t>Червень</t>
   </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,8 +93,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Месяц"/>
+    <tableColumn id="2" name="Сумма"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -129,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,7 +189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,54 +412,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
